--- a/labs/2.xlsx
+++ b/labs/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\tfftcs\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B88A47-4B7C-4BB1-ACC7-7EA11058E1F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC8EB6-BB30-4F6F-9413-6B2ACF01CB74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,8 +102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -111,8 +117,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -754,7 +761,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -786,7 +793,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -813,7 +820,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$21</c:f>
+              <c:f>Лист1!$E$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -823,7 +830,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -832,24 +839,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$22:$C$34</c:f>
+              <c:f>Лист1!$D$24:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -897,48 +891,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$22:$D$34</c:f>
+              <c:f>Лист1!$E$24:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.1687999999999999E-16</c:v>
+                  <c:v>2.8940000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2840000000000006E-17</c:v>
+                  <c:v>2.7540000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8480000000000003E-17</c:v>
+                  <c:v>2.491E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1130000000000002E-17</c:v>
+                  <c:v>2.1460000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8829999999999998E-17</c:v>
+                  <c:v>1.7759999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0150000000000001E-17</c:v>
+                  <c:v>1.4219999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.403E-17</c:v>
+                  <c:v>1.1080000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7499999999999997E-18</c:v>
+                  <c:v>8.4500000000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7600000000000002E-18</c:v>
+                  <c:v>6.3199999999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6699999999999998E-18</c:v>
+                  <c:v>4.6600000000000003E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2199999999999998E-18</c:v>
+                  <c:v>3.3900000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2200000000000001E-18</c:v>
+                  <c:v>2.4399999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.52E-18</c:v>
+                  <c:v>1.73E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,7 +940,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCB0-4CE3-BFA1-9ED5944C87F4}"/>
+              <c16:uniqueId val="{00000000-A3FF-41D7-8DEF-AA97E17FBBD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -955,7 +949,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$21</c:f>
+              <c:f>Лист1!$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -965,7 +959,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -974,24 +968,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$22:$C$34</c:f>
+              <c:f>Лист1!$D$24:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1039,48 +1020,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$22:$E$34</c:f>
+              <c:f>Лист1!$F$24:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.2729999999999999E-17</c:v>
+                  <c:v>2.6869999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5699999999999999E-18</c:v>
+                  <c:v>2.2799999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7500000000000002E-18</c:v>
+                  <c:v>1.7929999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8400000000000004E-18</c:v>
+                  <c:v>1.347E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5499999999999999E-18</c:v>
+                  <c:v>9.7999999999999993E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6900000000000001E-18</c:v>
+                  <c:v>6.9800000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.12E-18</c:v>
+                  <c:v>4.8799999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4000000000000001E-19</c:v>
+                  <c:v>3.3699999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8999999999999999E-19</c:v>
+                  <c:v>2.3E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1999999999999998E-19</c:v>
+                  <c:v>1.5600000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0999999999999999E-19</c:v>
+                  <c:v>1.0499999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4E-19</c:v>
+                  <c:v>6.9999999999999997E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0000000000000003E-20</c:v>
+                  <c:v>4.7E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,7 +1069,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FCB0-4CE3-BFA1-9ED5944C87F4}"/>
+              <c16:uniqueId val="{00000001-A3FF-41D7-8DEF-AA97E17FBBD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1097,7 +1078,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$21</c:f>
+              <c:f>Лист1!$G$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1107,7 +1088,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1116,24 +1097,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$22:$C$34</c:f>
+              <c:f>Лист1!$D$24:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1181,48 +1149,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$22:$F$34</c:f>
+              <c:f>Лист1!$G$24:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.16E-18</c:v>
+                  <c:v>2.0080000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2000000000000002E-19</c:v>
+                  <c:v>1.243E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3999999999999997E-19</c:v>
+                  <c:v>7.6899999999999992E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7000000000000001E-19</c:v>
+                  <c:v>4.7600000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7000000000000001E-19</c:v>
+                  <c:v>2.9399999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999999999999998E-20</c:v>
+                  <c:v>1.8199999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0000000000000006E-20</c:v>
+                  <c:v>1.13E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9999999999999998E-20</c:v>
+                  <c:v>6.9999999999999997E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9999999999999999E-20</c:v>
+                  <c:v>4.3000000000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9999999999999999E-20</c:v>
+                  <c:v>2.7000000000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9999999999999995E-21</c:v>
+                  <c:v>1.6999999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9999999999999995E-21</c:v>
+                  <c:v>9.9999999999999995E-8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5.9999999999999995E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,11 +1198,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FCB0-4CE3-BFA1-9ED5944C87F4}"/>
+              <c16:uniqueId val="{00000002-A3FF-41D7-8DEF-AA97E17FBBD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1242,13 +1211,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232800719"/>
-        <c:axId val="243158591"/>
+        <c:axId val="288441839"/>
+        <c:axId val="239102191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232800719"/>
+        <c:axId val="288441839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1243,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1289,7 +1257,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время (ч)</a:t>
+                  <a:t>Время (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1307,7 +1283,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1345,7 +1321,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1360,7 +1336,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243158591"/>
+        <c:crossAx val="239102191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,10 +1344,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243158591"/>
+        <c:axId val="239102191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.4000000000000013E-16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1396,7 +1371,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1428,7 +1403,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1450,14 +1425,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1481,7 +1450,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232800719"/>
+        <c:crossAx val="288441839"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1494,7 +1463,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1530,7 +1499,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1582,7 +1551,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1596,7 +1565,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>оперативная восстановимость</a:t>
+              <a:t>Оперативная восстановимость</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1614,7 +1583,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1641,7 +1610,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$40</c:f>
+              <c:f>Лист1!$E$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1651,7 +1620,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1660,24 +1629,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$41:$C$53</c:f>
+              <c:f>Лист1!$D$46:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1725,48 +1681,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$41:$D$53</c:f>
+              <c:f>Лист1!$E$46:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99999042000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999999989999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99999999969999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99999999880000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999999579999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999998629999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999995949999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99999989089999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999973040000001</c:v>
+                  <c:v>0.99999998999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999938160000001</c:v>
+                  <c:v>0.99999998000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99999867050000002</c:v>
+                  <c:v>0.99999996000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99999729859999997</c:v>
+                  <c:v>0.99999990999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,7 +1730,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F080-4F39-976C-26EFCFFBE455}"/>
+              <c16:uniqueId val="{00000000-836A-4C80-BAB6-BA2980A60AC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1783,7 +1739,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$40</c:f>
+              <c:f>Лист1!$F$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1793,7 +1749,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1802,24 +1758,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$41:$C$53</c:f>
+              <c:f>Лист1!$D$46:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1867,48 +1810,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$41:$E$53</c:f>
+              <c:f>Лист1!$F$46:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99997033999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999999989999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99999999969999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99999999880000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999999539999995</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999998400000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999994859999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99999984949999998</c:v>
+                  <c:v>0.99999998999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999959589999998</c:v>
+                  <c:v>0.99999998999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999899579999996</c:v>
+                  <c:v>0.99999996999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99999766999999995</c:v>
+                  <c:v>0.99999992000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99999491019999998</c:v>
+                  <c:v>0.99999983000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,7 +1859,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F080-4F39-976C-26EFCFFBE455}"/>
+              <c16:uniqueId val="{00000001-836A-4C80-BAB6-BA2980A60AC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1925,7 +1868,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$40</c:f>
+              <c:f>Лист1!$G$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1935,7 +1878,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1944,24 +1887,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$41:$C$53</c:f>
+              <c:f>Лист1!$D$46:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2009,48 +1939,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$41:$F$53</c:f>
+              <c:f>Лист1!$G$46:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99991633000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999999989999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99999999969999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99999999880000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999999520000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999998219999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999993870000004</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99999980669999999</c:v>
+                  <c:v>0.99999998999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999943960000004</c:v>
+                  <c:v>0.99999998000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999849789999995</c:v>
+                  <c:v>0.99999994999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99999624929999997</c:v>
+                  <c:v>0.99999987000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99999121040000005</c:v>
+                  <c:v>0.99999970000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +1988,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F080-4F39-976C-26EFCFFBE455}"/>
+              <c16:uniqueId val="{00000002-836A-4C80-BAB6-BA2980A60AC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2067,7 +1997,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$40</c:f>
+              <c:f>Лист1!$H$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2077,7 +2007,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2086,22 +2016,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$41:$C$53</c:f>
+              <c:f>Лист1!$D$46:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2149,48 +2068,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$41:$G$53</c:f>
+              <c:f>Лист1!$H$46:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99978317999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999999989999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99999999969999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99999999880000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999999510000004</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999998089999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999993060000003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99999976619999997</c:v>
+                  <c:v>0.99999998999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999927320000004</c:v>
+                  <c:v>0.99999998000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999790860000004</c:v>
+                  <c:v>0.99999992999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99999439999999995</c:v>
+                  <c:v>0.99999981000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99998595670000001</c:v>
+                  <c:v>0.99999952999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,7 +2117,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F080-4F39-976C-26EFCFFBE455}"/>
+              <c16:uniqueId val="{00000003-836A-4C80-BAB6-BA2980A60AC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2207,7 +2126,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$H$40</c:f>
+              <c:f>Лист1!$I$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2217,7 +2136,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -2226,22 +2145,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$41:$C$53</c:f>
+              <c:f>Лист1!$D$46:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2289,48 +2197,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$H$41:$H$53</c:f>
+              <c:f>Лист1!$I$46:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99880658</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999999989999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99999999969999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99999999880000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999999480000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999997819999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999991050000003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99999965219999998</c:v>
+                  <c:v>0.99999998999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999874590000004</c:v>
+                  <c:v>0.99999996000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999583420000004</c:v>
+                  <c:v>0.99999985999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99998723850000004</c:v>
+                  <c:v>0.99999956999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99996376170000001</c:v>
+                  <c:v>0.99999877999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,7 +2246,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F080-4F39-976C-26EFCFFBE455}"/>
+              <c16:uniqueId val="{00000004-836A-4C80-BAB6-BA2980A60AC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2347,7 +2255,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$I$40</c:f>
+              <c:f>Лист1!$J$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2357,7 +2265,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -2366,24 +2274,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$41:$C$53</c:f>
+              <c:f>Лист1!$D$46:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2431,48 +2326,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$41:$I$53</c:f>
+              <c:f>Лист1!$J$46:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.95516212</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999999989999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99999999969999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9999999986</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999999210000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999994329999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999960860000003</c:v>
+                  <c:v>0.99999998999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99999769510000003</c:v>
+                  <c:v>0.99999992000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99998856589999996</c:v>
+                  <c:v>0.99999961000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99995133489999999</c:v>
+                  <c:v>0.99999835000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9998182524</c:v>
+                  <c:v>0.99999386000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99939242650000004</c:v>
+                  <c:v>0.99997946000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,7 +2375,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F080-4F39-976C-26EFCFFBE455}"/>
+              <c16:uniqueId val="{00000005-836A-4C80-BAB6-BA2980A60AC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2489,7 +2384,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$J$40</c:f>
+              <c:f>Лист1!$K$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2499,7 +2394,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -2510,24 +2405,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$41:$C$53</c:f>
+              <c:f>Лист1!$D$46:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2575,48 +2457,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$41:$J$53</c:f>
+              <c:f>Лист1!$K$46:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.69259532000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.80085695999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999999989999999</c:v>
+                  <c:v>0.95186433999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99999999969999998</c:v>
+                  <c:v>0.98836493999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99999999819999996</c:v>
+                  <c:v>0.99718764000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999997979999999</c:v>
+                  <c:v>0.99932021000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999975370000005</c:v>
+                  <c:v>0.99983568</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999769439999997</c:v>
+                  <c:v>0.99996021000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99998350840000005</c:v>
+                  <c:v>0.99998984000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99990554890000005</c:v>
+                  <c:v>0.99999448999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99954812699999995</c:v>
+                  <c:v>0.99998416000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99813395319999998</c:v>
+                  <c:v>0.99993679000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99318019479999997</c:v>
+                  <c:v>0.99976944000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2624,7 +2506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F080-4F39-976C-26EFCFFBE455}"/>
+              <c16:uniqueId val="{00000006-836A-4C80-BAB6-BA2980A60AC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2636,13 +2518,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172252783"/>
-        <c:axId val="232142783"/>
+        <c:axId val="287860863"/>
+        <c:axId val="237818191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172252783"/>
+        <c:axId val="287860863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +2550,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2683,8 +2564,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>время (ч)</a:t>
+                  <a:t>Время (</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2701,7 +2587,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2739,7 +2625,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2754,7 +2640,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232142783"/>
+        <c:crossAx val="237818191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2762,9 +2648,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232142783"/>
+        <c:axId val="237818191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.65000000000000013"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2789,7 +2676,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2803,7 +2690,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>вероятность</a:t>
+                  <a:t>Вероятность</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2821,7 +2708,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2843,14 +2730,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2874,7 +2755,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172252783"/>
+        <c:crossAx val="287860863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2887,7 +2768,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2923,7 +2804,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3596,7 +3477,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3607,7 +3488,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3630,18 +3511,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3653,7 +3534,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3661,11 +3542,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3697,12 +3578,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3712,12 +3593,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3729,13 +3610,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3747,12 +3628,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3762,19 +3643,18 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3796,13 +3676,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3817,9 +3699,259 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
@@ -3830,58 +3962,59 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3894,275 +4027,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -4174,7 +4050,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4182,11 +4058,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4218,12 +4094,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4233,12 +4109,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4250,13 +4126,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4268,12 +4144,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4283,19 +4159,18 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4317,13 +4192,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4338,9 +4215,259 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
@@ -4351,126 +4478,8 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:upBar>
+  <cs:valueAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4481,158 +4490,20 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4677,23 +4548,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3585227F-7976-4E67-8E09-1A249EEAD8BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002F3D48-301F-4710-A8A3-3962B1F4E204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4713,23 +4584,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4314569-D013-4631-BF39-78A322CA49DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AEFB12-92C7-4B48-8A7B-8366C4871FD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5013,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:J53"/>
+  <dimension ref="C2:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5032,13 +4903,13 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -5114,592 +4985,616 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="2" t="s">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2.8940000000000001E-5</v>
+      </c>
+      <c r="F24">
+        <v>2.6869999999999999E-5</v>
+      </c>
+      <c r="G24">
+        <v>2.0080000000000001E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2.7540000000000001E-5</v>
+      </c>
+      <c r="F25">
+        <v>2.2799999999999999E-5</v>
+      </c>
+      <c r="G25">
+        <v>1.243E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="E26">
+        <v>2.491E-5</v>
+      </c>
+      <c r="F26">
+        <v>1.7929999999999999E-5</v>
+      </c>
+      <c r="G26">
+        <v>7.6899999999999992E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="E27">
+        <v>2.1460000000000001E-5</v>
+      </c>
+      <c r="F27">
+        <v>1.347E-5</v>
+      </c>
+      <c r="G27">
+        <v>4.7600000000000002E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>1.7759999999999999E-5</v>
+      </c>
+      <c r="F28">
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="G28">
+        <v>2.9399999999999998E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>1.4219999999999999E-5</v>
+      </c>
+      <c r="F29">
+        <v>6.9800000000000001E-6</v>
+      </c>
+      <c r="G29">
+        <v>1.8199999999999999E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>1.1080000000000001E-5</v>
+      </c>
+      <c r="F30">
+        <v>4.8799999999999999E-6</v>
+      </c>
+      <c r="G30">
+        <v>1.13E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>8.4500000000000004E-6</v>
+      </c>
+      <c r="F31">
+        <v>3.3699999999999999E-6</v>
+      </c>
+      <c r="G31">
+        <v>6.9999999999999997E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>6.3199999999999996E-6</v>
+      </c>
+      <c r="F32">
+        <v>2.3E-6</v>
+      </c>
+      <c r="G32">
+        <v>4.3000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>4.6600000000000003E-6</v>
+      </c>
+      <c r="F33">
+        <v>1.5600000000000001E-6</v>
+      </c>
+      <c r="G33">
+        <v>2.7000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>3.3900000000000002E-6</v>
+      </c>
+      <c r="F34">
+        <v>1.0499999999999999E-6</v>
+      </c>
+      <c r="G34">
+        <v>1.6999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>2.4399999999999999E-6</v>
+      </c>
+      <c r="F35">
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="G35">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1.73E-6</v>
+      </c>
+      <c r="F36">
+        <v>4.7E-7</v>
+      </c>
+      <c r="G36">
+        <v>5.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>1.1687999999999999E-16</v>
-      </c>
-      <c r="E22">
-        <v>1.2729999999999999E-17</v>
-      </c>
-      <c r="F22">
-        <v>1.16E-18</v>
+      <c r="E46">
+        <v>0.99999042000000005</v>
+      </c>
+      <c r="F46">
+        <v>0.99997033999999996</v>
+      </c>
+      <c r="G46">
+        <v>0.99991633000000002</v>
+      </c>
+      <c r="H46">
+        <v>0.99978317999999999</v>
+      </c>
+      <c r="I46">
+        <v>0.99880658</v>
+      </c>
+      <c r="J46">
+        <v>0.95516212</v>
+      </c>
+      <c r="K46">
+        <v>0.69259532000000001</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>8.2840000000000006E-17</v>
-      </c>
-      <c r="E23">
-        <v>8.5699999999999999E-18</v>
-      </c>
-      <c r="F23">
-        <v>7.2000000000000002E-19</v>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0.80085695999999995</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>5.8480000000000003E-17</v>
-      </c>
-      <c r="E24">
-        <v>5.7500000000000002E-18</v>
-      </c>
-      <c r="F24">
-        <v>4.3999999999999997E-19</v>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0.95186433999999998</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49">
         <v>6</v>
       </c>
-      <c r="D25">
-        <v>4.1130000000000002E-17</v>
-      </c>
-      <c r="E25">
-        <v>3.8400000000000004E-18</v>
-      </c>
-      <c r="F25">
-        <v>2.7000000000000001E-19</v>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0.98836493999999997</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50">
         <v>8</v>
       </c>
-      <c r="D26">
-        <v>2.8829999999999998E-17</v>
-      </c>
-      <c r="E26">
-        <v>2.5499999999999999E-18</v>
-      </c>
-      <c r="F26">
-        <v>1.7000000000000001E-19</v>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0.99718764000000004</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51">
         <v>10</v>
       </c>
-      <c r="D27">
-        <v>2.0150000000000001E-17</v>
-      </c>
-      <c r="E27">
-        <v>1.6900000000000001E-18</v>
-      </c>
-      <c r="F27">
-        <v>9.9999999999999998E-20</v>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0.99932021000000004</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52">
         <v>12</v>
       </c>
-      <c r="D28">
-        <v>1.403E-17</v>
-      </c>
-      <c r="E28">
-        <v>1.12E-18</v>
-      </c>
-      <c r="F28">
-        <v>6.0000000000000006E-20</v>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0.99983568</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53">
         <v>14</v>
       </c>
-      <c r="D29">
-        <v>9.7499999999999997E-18</v>
-      </c>
-      <c r="E29">
-        <v>7.4000000000000001E-19</v>
-      </c>
-      <c r="F29">
-        <v>3.9999999999999998E-20</v>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="K53">
+        <v>0.99996021000000002</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D54">
         <v>16</v>
       </c>
-      <c r="D30">
-        <v>6.7600000000000002E-18</v>
-      </c>
-      <c r="E30">
-        <v>4.8999999999999999E-19</v>
-      </c>
-      <c r="F30">
-        <v>1.9999999999999999E-20</v>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="G54">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="H54">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="I54">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="J54">
+        <v>0.99999992000000004</v>
+      </c>
+      <c r="K54">
+        <v>0.99998984000000002</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D55">
         <v>18</v>
       </c>
-      <c r="D31">
-        <v>4.6699999999999998E-18</v>
-      </c>
-      <c r="E31">
-        <v>3.1999999999999998E-19</v>
-      </c>
-      <c r="F31">
-        <v>1.9999999999999999E-20</v>
+      <c r="E55">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="F55">
+        <v>0.99999998999999995</v>
+      </c>
+      <c r="G55">
+        <v>0.99999998000000001</v>
+      </c>
+      <c r="H55">
+        <v>0.99999998000000001</v>
+      </c>
+      <c r="I55">
+        <v>0.99999996000000002</v>
+      </c>
+      <c r="J55">
+        <v>0.99999961000000004</v>
+      </c>
+      <c r="K55">
+        <v>0.99999448999999996</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32">
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D56">
         <v>20</v>
       </c>
-      <c r="D32">
-        <v>3.2199999999999998E-18</v>
-      </c>
-      <c r="E32">
-        <v>2.0999999999999999E-19</v>
-      </c>
-      <c r="F32">
-        <v>9.9999999999999995E-21</v>
+      <c r="E56">
+        <v>0.99999998000000001</v>
+      </c>
+      <c r="F56">
+        <v>0.99999996999999996</v>
+      </c>
+      <c r="G56">
+        <v>0.99999994999999997</v>
+      </c>
+      <c r="H56">
+        <v>0.99999992999999998</v>
+      </c>
+      <c r="I56">
+        <v>0.99999985999999996</v>
+      </c>
+      <c r="J56">
+        <v>0.99999835000000004</v>
+      </c>
+      <c r="K56">
+        <v>0.99998416000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D57">
         <v>22</v>
       </c>
-      <c r="D33">
-        <v>2.2200000000000001E-18</v>
-      </c>
-      <c r="E33">
-        <v>1.4E-19</v>
-      </c>
-      <c r="F33">
-        <v>9.9999999999999995E-21</v>
+      <c r="E57">
+        <v>0.99999996000000002</v>
+      </c>
+      <c r="F57">
+        <v>0.99999992000000004</v>
+      </c>
+      <c r="G57">
+        <v>0.99999987000000001</v>
+      </c>
+      <c r="H57">
+        <v>0.99999981000000004</v>
+      </c>
+      <c r="I57">
+        <v>0.99999956999999995</v>
+      </c>
+      <c r="J57">
+        <v>0.99999386000000001</v>
+      </c>
+      <c r="K57">
+        <v>0.99993679000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34">
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D58">
         <v>24</v>
       </c>
-      <c r="D34">
-        <v>1.52E-18</v>
-      </c>
-      <c r="E34">
-        <v>9.0000000000000003E-20</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>0.99999999989999999</v>
-      </c>
-      <c r="E43">
-        <v>0.99999999989999999</v>
-      </c>
-      <c r="F43">
-        <v>0.99999999989999999</v>
-      </c>
-      <c r="G43">
-        <v>0.99999999989999999</v>
-      </c>
-      <c r="H43">
-        <v>0.99999999989999999</v>
-      </c>
-      <c r="I43">
-        <v>0.99999999989999999</v>
-      </c>
-      <c r="J43">
-        <v>0.99999999989999999</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>0.99999999969999998</v>
-      </c>
-      <c r="E44">
-        <v>0.99999999969999998</v>
-      </c>
-      <c r="F44">
-        <v>0.99999999969999998</v>
-      </c>
-      <c r="G44">
-        <v>0.99999999969999998</v>
-      </c>
-      <c r="H44">
-        <v>0.99999999969999998</v>
-      </c>
-      <c r="I44">
-        <v>0.99999999969999998</v>
-      </c>
-      <c r="J44">
-        <v>0.99999999969999998</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>0.99999999880000001</v>
-      </c>
-      <c r="E45">
-        <v>0.99999999880000001</v>
-      </c>
-      <c r="F45">
-        <v>0.99999999880000001</v>
-      </c>
-      <c r="G45">
-        <v>0.99999999880000001</v>
-      </c>
-      <c r="H45">
-        <v>0.99999999880000001</v>
-      </c>
-      <c r="I45">
-        <v>0.9999999986</v>
-      </c>
-      <c r="J45">
-        <v>0.99999999819999996</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>0.99999999579999999</v>
-      </c>
-      <c r="E46">
-        <v>0.99999999539999995</v>
-      </c>
-      <c r="F46">
-        <v>0.99999999520000005</v>
-      </c>
-      <c r="G46">
-        <v>0.99999999510000004</v>
-      </c>
-      <c r="H46">
-        <v>0.99999999480000001</v>
-      </c>
-      <c r="I46">
-        <v>0.99999999210000001</v>
-      </c>
-      <c r="J46">
-        <v>0.99999997979999999</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>12</v>
-      </c>
-      <c r="D47">
-        <v>0.99999998629999998</v>
-      </c>
-      <c r="E47">
-        <v>0.99999998400000001</v>
-      </c>
-      <c r="F47">
-        <v>0.99999998219999997</v>
-      </c>
-      <c r="G47">
-        <v>0.99999998089999997</v>
-      </c>
-      <c r="H47">
-        <v>0.99999997819999997</v>
-      </c>
-      <c r="I47">
-        <v>0.99999994329999997</v>
-      </c>
-      <c r="J47">
-        <v>0.99999975370000005</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>14</v>
-      </c>
-      <c r="D48">
-        <v>0.99999995949999998</v>
-      </c>
-      <c r="E48">
-        <v>0.99999994859999997</v>
-      </c>
-      <c r="F48">
-        <v>0.99999993870000004</v>
-      </c>
-      <c r="G48">
-        <v>0.99999993060000003</v>
-      </c>
-      <c r="H48">
-        <v>0.99999991050000003</v>
-      </c>
-      <c r="I48">
-        <v>0.99999960860000003</v>
-      </c>
-      <c r="J48">
-        <v>0.99999769439999997</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>16</v>
-      </c>
-      <c r="D49">
-        <v>0.99999989089999997</v>
-      </c>
-      <c r="E49">
-        <v>0.99999984949999998</v>
-      </c>
-      <c r="F49">
-        <v>0.99999980669999999</v>
-      </c>
-      <c r="G49">
-        <v>0.99999976619999997</v>
-      </c>
-      <c r="H49">
-        <v>0.99999965219999998</v>
-      </c>
-      <c r="I49">
-        <v>0.99999769510000003</v>
-      </c>
-      <c r="J49">
-        <v>0.99998350840000005</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>18</v>
-      </c>
-      <c r="D50">
-        <v>0.99999973040000001</v>
-      </c>
-      <c r="E50">
-        <v>0.99999959589999998</v>
-      </c>
-      <c r="F50">
-        <v>0.99999943960000004</v>
-      </c>
-      <c r="G50">
-        <v>0.99999927320000004</v>
-      </c>
-      <c r="H50">
-        <v>0.99999874590000004</v>
-      </c>
-      <c r="I50">
-        <v>0.99998856589999996</v>
-      </c>
-      <c r="J50">
-        <v>0.99990554890000005</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>20</v>
-      </c>
-      <c r="D51">
-        <v>0.99999938160000001</v>
-      </c>
-      <c r="E51">
-        <v>0.99999899579999996</v>
-      </c>
-      <c r="F51">
-        <v>0.99999849789999995</v>
-      </c>
-      <c r="G51">
-        <v>0.99999790860000004</v>
-      </c>
-      <c r="H51">
-        <v>0.99999583420000004</v>
-      </c>
-      <c r="I51">
-        <v>0.99995133489999999</v>
-      </c>
-      <c r="J51">
-        <v>0.99954812699999995</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>22</v>
-      </c>
-      <c r="D52">
-        <v>0.99999867050000002</v>
-      </c>
-      <c r="E52">
-        <v>0.99999766999999995</v>
-      </c>
-      <c r="F52">
-        <v>0.99999624929999997</v>
-      </c>
-      <c r="G52">
-        <v>0.99999439999999995</v>
-      </c>
-      <c r="H52">
-        <v>0.99998723850000004</v>
-      </c>
-      <c r="I52">
-        <v>0.9998182524</v>
-      </c>
-      <c r="J52">
-        <v>0.99813395319999998</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>24</v>
-      </c>
-      <c r="D53">
-        <v>0.99999729859999997</v>
-      </c>
-      <c r="E53">
-        <v>0.99999491019999998</v>
-      </c>
-      <c r="F53">
-        <v>0.99999121040000005</v>
-      </c>
-      <c r="G53">
-        <v>0.99998595670000001</v>
-      </c>
-      <c r="H53">
-        <v>0.99996376170000001</v>
-      </c>
-      <c r="I53">
-        <v>0.99939242650000004</v>
-      </c>
-      <c r="J53">
-        <v>0.99318019479999997</v>
+      <c r="E58">
+        <v>0.99999990999999999</v>
+      </c>
+      <c r="F58">
+        <v>0.99999983000000003</v>
+      </c>
+      <c r="G58">
+        <v>0.99999970000000005</v>
+      </c>
+      <c r="H58">
+        <v>0.99999952999999997</v>
+      </c>
+      <c r="I58">
+        <v>0.99999877999999998</v>
+      </c>
+      <c r="J58">
+        <v>0.99997946000000004</v>
+      </c>
+      <c r="K58">
+        <v>0.99976944000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="E44:K44"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="E22:G22"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E9">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5710,7 +5605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D53">
+  <conditionalFormatting sqref="D4:D9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5722,19 +5617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E53">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F53">
+  <conditionalFormatting sqref="E24:E36">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5746,7 +5629,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G53">
+  <conditionalFormatting sqref="F24:F36">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5758,7 +5641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H53">
+  <conditionalFormatting sqref="G24:G36">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5770,7 +5653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I53">
+  <conditionalFormatting sqref="E46:E58">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5782,7 +5665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J53">
+  <conditionalFormatting sqref="F46:F58">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5794,7 +5677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D34">
+  <conditionalFormatting sqref="G46:G58">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5806,7 +5689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E34">
+  <conditionalFormatting sqref="H46:H58">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5818,7 +5701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F34">
+  <conditionalFormatting sqref="I46:I58">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5830,8 +5713,104 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D9">
+  <conditionalFormatting sqref="J46:J58">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:K58">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
